--- a/Code/Results/Cases/Case_5_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03916419819042</v>
+        <v>19.93587785526115</v>
       </c>
       <c r="C2">
-        <v>13.08295949195207</v>
+        <v>9.474960569113012</v>
       </c>
       <c r="D2">
-        <v>5.083826033221526</v>
+        <v>8.10468717712231</v>
       </c>
       <c r="E2">
-        <v>7.252041713978599</v>
+        <v>12.69313455404209</v>
       </c>
       <c r="F2">
-        <v>22.98533220561154</v>
+        <v>35.67475656164122</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.667461791096447</v>
+        <v>9.931293539833714</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.661946291600469</v>
+        <v>11.21381394625839</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.99788372251793</v>
+        <v>27.43644700732835</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47362859202633</v>
+        <v>19.39582765267504</v>
       </c>
       <c r="C3">
-        <v>12.45888367752442</v>
+        <v>9.18825208512923</v>
       </c>
       <c r="D3">
-        <v>4.979375293778347</v>
+        <v>8.098123691196937</v>
       </c>
       <c r="E3">
-        <v>7.313251582364408</v>
+        <v>12.73006694807218</v>
       </c>
       <c r="F3">
-        <v>22.86982014299584</v>
+        <v>35.81446367997784</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.746687137123828</v>
+        <v>9.95982585977629</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.415315144198676</v>
+        <v>11.1838795834798</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.04150717283633</v>
+        <v>27.56367958688883</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.4595376424743</v>
+        <v>19.05820643016829</v>
       </c>
       <c r="C4">
-        <v>12.06016229695458</v>
+        <v>9.006950416796826</v>
       </c>
       <c r="D4">
-        <v>4.915566139027124</v>
+        <v>8.094827478781447</v>
       </c>
       <c r="E4">
-        <v>7.35398024222332</v>
+        <v>12.75427584390294</v>
       </c>
       <c r="F4">
-        <v>22.82633857546336</v>
+        <v>35.90987989271635</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.796718244321747</v>
+        <v>9.978246839644276</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.261991362369034</v>
+        <v>11.16662915140331</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.08921935701039</v>
+        <v>27.6488708392633</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.03303229474589</v>
+        <v>18.91929841816443</v>
       </c>
       <c r="C5">
-        <v>11.8939047563537</v>
+        <v>8.931830301089015</v>
       </c>
       <c r="D5">
-        <v>4.889670181440253</v>
+        <v>8.093669891693935</v>
       </c>
       <c r="E5">
-        <v>7.371353854127935</v>
+        <v>12.76452704375945</v>
       </c>
       <c r="F5">
-        <v>22.81525861973113</v>
+        <v>35.95117724214588</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.817463710117167</v>
+        <v>9.985981044287067</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.199114440105658</v>
+        <v>11.15988749693787</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.11366734871985</v>
+        <v>27.68535949497018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96141241605326</v>
+        <v>18.89615866105435</v>
       </c>
       <c r="C6">
-        <v>11.86607413861139</v>
+        <v>8.919284499285537</v>
       </c>
       <c r="D6">
-        <v>4.885377379507197</v>
+        <v>8.093488919649712</v>
       </c>
       <c r="E6">
-        <v>7.374285208563693</v>
+        <v>12.76625257090615</v>
       </c>
       <c r="F6">
-        <v>22.81381189370016</v>
+        <v>35.95818021146511</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.820930312822116</v>
+        <v>9.987279064026286</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.188652291741264</v>
+        <v>11.15878556121462</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.11802171137834</v>
+        <v>27.69152531028196</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45383924526113</v>
+        <v>19.05633817026228</v>
       </c>
       <c r="C7">
-        <v>12.05793518358716</v>
+        <v>9.00594221670935</v>
       </c>
       <c r="D7">
-        <v>4.915216430764524</v>
+        <v>8.094811114026127</v>
       </c>
       <c r="E7">
-        <v>7.354211424051741</v>
+        <v>12.75441253198799</v>
       </c>
       <c r="F7">
-        <v>22.82616262074185</v>
+        <v>35.91042707852613</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.796996566581766</v>
+        <v>9.978350223763064</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.261144876818065</v>
+        <v>11.1665370596509</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.08952914539195</v>
+        <v>27.64935576815508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51034658980044</v>
+        <v>19.75103075546568</v>
       </c>
       <c r="C8">
-        <v>12.87107384100726</v>
+        <v>9.377244163334673</v>
       </c>
       <c r="D8">
-        <v>5.0477591151081</v>
+        <v>8.102272479336522</v>
       </c>
       <c r="E8">
-        <v>7.272484937751926</v>
+        <v>12.70555117263805</v>
       </c>
       <c r="F8">
-        <v>22.93965454030309</v>
+        <v>35.72092272928676</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.694496338885349</v>
+        <v>9.940944683314559</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.577345877315988</v>
+        <v>11.20326065523002</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.00842644391233</v>
+        <v>27.47884628519506</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.20857271050408</v>
+        <v>21.05770306077975</v>
       </c>
       <c r="C9">
-        <v>14.33781869194735</v>
+        <v>10.06025832788164</v>
       </c>
       <c r="D9">
-        <v>5.309183542913353</v>
+        <v>8.122675681328774</v>
       </c>
       <c r="E9">
-        <v>7.137882746827222</v>
+        <v>12.62186580809286</v>
       </c>
       <c r="F9">
-        <v>23.39089985501691</v>
+        <v>35.42612554349291</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.504075822412948</v>
+        <v>9.874718186583646</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.179288801555559</v>
+        <v>11.28405212049552</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.02694255103808</v>
+        <v>27.20080800569252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.68097562500853</v>
+        <v>21.9742759935203</v>
       </c>
       <c r="C10">
-        <v>15.33295010513155</v>
+        <v>10.53056907621636</v>
       </c>
       <c r="D10">
-        <v>5.500846149519885</v>
+        <v>8.141114242718215</v>
       </c>
       <c r="E10">
-        <v>7.055686269209557</v>
+        <v>12.56774175984621</v>
       </c>
       <c r="F10">
-        <v>23.87559066800604</v>
+        <v>35.2568551386231</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.37000703128471</v>
+        <v>9.830361249457708</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.606851385290947</v>
+        <v>11.34850287659246</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.16436819671781</v>
+        <v>27.03119049047471</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.74735961147216</v>
+        <v>22.38005833456714</v>
       </c>
       <c r="C11">
-        <v>15.76715790726006</v>
+        <v>10.7369749017233</v>
       </c>
       <c r="D11">
-        <v>5.587702576156262</v>
+        <v>8.150235116588949</v>
       </c>
       <c r="E11">
-        <v>7.022172670708715</v>
+        <v>12.54470980996103</v>
       </c>
       <c r="F11">
-        <v>24.13192660942703</v>
+        <v>35.19022169840525</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.310136866609916</v>
+        <v>9.81110631782594</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.797559420925662</v>
+        <v>11.3788706241971</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.25701784952423</v>
+        <v>26.96161960103012</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.14290718953037</v>
+        <v>22.53198171655912</v>
       </c>
       <c r="C12">
-        <v>15.92889367305731</v>
+        <v>10.81400007320526</v>
       </c>
       <c r="D12">
-        <v>5.620526938719457</v>
+        <v>8.153792882682161</v>
       </c>
       <c r="E12">
-        <v>7.010062853726497</v>
+        <v>12.53621619690632</v>
       </c>
       <c r="F12">
-        <v>24.23433624461966</v>
+        <v>35.16648782045997</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.287613692976438</v>
+        <v>9.80394703000907</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.869189279108113</v>
+        <v>11.39051563926581</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.29669168533783</v>
+        <v>26.93637170920299</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.05808476602327</v>
+        <v>22.49934153505563</v>
       </c>
       <c r="C13">
-        <v>15.89418094928194</v>
+        <v>10.79746262307897</v>
       </c>
       <c r="D13">
-        <v>5.61346084477422</v>
+        <v>8.153022058547746</v>
       </c>
       <c r="E13">
-        <v>7.012644684842109</v>
+        <v>12.53803531149341</v>
       </c>
       <c r="F13">
-        <v>24.21204017102247</v>
+        <v>35.17153255836219</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.292458070275882</v>
+        <v>9.805483043843909</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.853789206141457</v>
+        <v>11.38800129761143</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.28793911544967</v>
+        <v>26.94176040920655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.78006657473347</v>
+        <v>22.39259269388031</v>
       </c>
       <c r="C14">
-        <v>15.78051803660832</v>
+        <v>10.74333485725722</v>
       </c>
       <c r="D14">
-        <v>5.590404483056977</v>
+        <v>8.150525743010274</v>
       </c>
       <c r="E14">
-        <v>7.021164603053154</v>
+        <v>12.54400646672051</v>
       </c>
       <c r="F14">
-        <v>24.14024386562409</v>
+        <v>35.18823901746553</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.308280972512141</v>
+        <v>9.810514674262201</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.803464432234753</v>
+        <v>11.37982578392728</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.26018842534233</v>
+        <v>26.9595204213738</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.60869914424387</v>
+        <v>22.32697597961223</v>
       </c>
       <c r="C15">
-        <v>15.71054528787023</v>
+        <v>10.71003062635889</v>
       </c>
       <c r="D15">
-        <v>5.576272650661534</v>
+        <v>8.149010160763741</v>
       </c>
       <c r="E15">
-        <v>7.026459694992744</v>
+        <v>12.54769366177008</v>
       </c>
       <c r="F15">
-        <v>24.09696733029908</v>
+        <v>35.19866761290062</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.317991893992072</v>
+        <v>9.813613882779137</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.772561480541647</v>
+        <v>11.37483681901116</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.24379545656108</v>
+        <v>26.97054198677957</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.61012126429433</v>
+        <v>21.94752087255055</v>
       </c>
       <c r="C16">
-        <v>15.30419868028793</v>
+        <v>10.51692366078782</v>
       </c>
       <c r="D16">
-        <v>5.495161563723023</v>
+        <v>8.140532794442258</v>
       </c>
       <c r="E16">
-        <v>7.057956456856274</v>
+        <v>12.56927889423806</v>
       </c>
       <c r="F16">
-        <v>23.85957611867</v>
+        <v>35.2614191057509</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.373941144840501</v>
+        <v>9.831638129198089</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.594308109481085</v>
+        <v>11.34653891864663</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.15894179599142</v>
+        <v>27.03589031951618</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.98267020725365</v>
+        <v>21.71177894044969</v>
       </c>
       <c r="C17">
-        <v>15.05015755640694</v>
+        <v>10.39648861338658</v>
       </c>
       <c r="D17">
-        <v>5.445303653831042</v>
+        <v>8.13551889672736</v>
       </c>
       <c r="E17">
-        <v>7.078288040859294</v>
+        <v>12.58292747640889</v>
       </c>
       <c r="F17">
-        <v>23.72326319737252</v>
+        <v>35.30257639969693</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.408542025230539</v>
+        <v>9.842931442350643</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.48395199055744</v>
+        <v>11.32944389687432</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.11478986185035</v>
+        <v>27.07792727926874</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.61627981476766</v>
+        <v>21.57514195958138</v>
       </c>
       <c r="C18">
-        <v>14.90230112607384</v>
+        <v>10.32651048857603</v>
       </c>
       <c r="D18">
-        <v>5.41659644644954</v>
+        <v>8.132704131509596</v>
       </c>
       <c r="E18">
-        <v>7.090345739664588</v>
+        <v>12.59092740419662</v>
       </c>
       <c r="F18">
-        <v>23.64822372877364</v>
+        <v>35.32722447922629</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.428549597812828</v>
+        <v>9.849513996285649</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.420123133569342</v>
+        <v>11.3197103423102</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.09221637314709</v>
+        <v>27.10281979325784</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.49127866894741</v>
+        <v>21.52870383960415</v>
       </c>
       <c r="C19">
-        <v>14.85194204327164</v>
+        <v>10.30269733443693</v>
       </c>
       <c r="D19">
-        <v>5.40687208369905</v>
+        <v>8.131763013234828</v>
       </c>
       <c r="E19">
-        <v>7.094490018191252</v>
+        <v>12.59366175455112</v>
       </c>
       <c r="F19">
-        <v>23.62338851358228</v>
+        <v>35.33573719381209</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.435342401245104</v>
+        <v>9.851757686974913</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.398452216170488</v>
+        <v>11.31643190186329</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.08505003189466</v>
+        <v>27.11137041704164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.05003153719387</v>
+        <v>21.73698315834112</v>
       </c>
       <c r="C20">
-        <v>15.07738088774589</v>
+        <v>10.40938270318708</v>
       </c>
       <c r="D20">
-        <v>5.450614386252553</v>
+        <v>8.136045494387588</v>
       </c>
       <c r="E20">
-        <v>7.076085923337322</v>
+        <v>12.58145907933873</v>
       </c>
       <c r="F20">
-        <v>23.73742436931257</v>
+        <v>35.29809411801483</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.4048478132805</v>
+        <v>9.84172025658863</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.495736649124479</v>
+        <v>11.33125347847752</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.11919600875161</v>
+        <v>27.07337843791521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.86195070506509</v>
+        <v>22.42399555788075</v>
       </c>
       <c r="C21">
-        <v>15.81397676095922</v>
+        <v>10.75926471585162</v>
       </c>
       <c r="D21">
-        <v>5.597178631212405</v>
+        <v>8.151256164338303</v>
       </c>
       <c r="E21">
-        <v>7.018646131357493</v>
+        <v>12.54224640711762</v>
       </c>
       <c r="F21">
-        <v>24.16118583007716</v>
+        <v>35.18329118952657</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.303629479522493</v>
+        <v>9.809033181254541</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.8182622687545</v>
+        <v>11.38222322800762</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.26821292271177</v>
+        <v>26.95427405455437</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.99800582271648</v>
+        <v>22.86281765702444</v>
       </c>
       <c r="C22">
-        <v>16.2797040182177</v>
+        <v>10.98128993499753</v>
       </c>
       <c r="D22">
-        <v>5.692573489491575</v>
+        <v>8.161802011738683</v>
       </c>
       <c r="E22">
-        <v>6.984504923484594</v>
+        <v>12.51794791324244</v>
       </c>
       <c r="F22">
-        <v>24.46934416925445</v>
+        <v>35.11700008018965</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.238335818096294</v>
+        <v>9.788440195462902</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.025615024288784</v>
+        <v>11.41637983770337</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.39246705789696</v>
+        <v>26.88282979775444</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.39603612638785</v>
+        <v>22.62958170550695</v>
       </c>
       <c r="C23">
-        <v>16.03257840429779</v>
+        <v>10.86341437870565</v>
       </c>
       <c r="D23">
-        <v>5.641701002145612</v>
+        <v>8.156118675392408</v>
       </c>
       <c r="E23">
-        <v>7.002407507816842</v>
+        <v>12.5307950000777</v>
       </c>
       <c r="F23">
-        <v>24.30196147654719</v>
+        <v>35.15157878585806</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.2731100651158</v>
+        <v>9.799360818851314</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.915273256168209</v>
+        <v>11.39807432735963</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.32361004566363</v>
+        <v>26.92037368598054</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.0195951197506</v>
+        <v>21.72559176566832</v>
       </c>
       <c r="C24">
-        <v>15.06507883866555</v>
+        <v>10.40355558122439</v>
       </c>
       <c r="D24">
-        <v>5.448213537343755</v>
+        <v>8.135807208323806</v>
       </c>
       <c r="E24">
-        <v>7.077080353686978</v>
+        <v>12.58212246448951</v>
       </c>
       <c r="F24">
-        <v>23.73101174975011</v>
+        <v>35.30011748613899</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.406517607166498</v>
+        <v>9.842267553654169</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.490409996724557</v>
+        <v>11.33043507156155</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.11719525659583</v>
+        <v>27.07543271143609</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.24561112669153</v>
+        <v>20.71120230853495</v>
       </c>
       <c r="C25">
-        <v>13.95525449486659</v>
+        <v>9.880753759855075</v>
       </c>
       <c r="D25">
-        <v>5.238442278883118</v>
+        <v>8.116545193993081</v>
       </c>
       <c r="E25">
-        <v>7.17144521507184</v>
+        <v>12.64320990978359</v>
       </c>
       <c r="F25">
-        <v>23.2428582552866</v>
+        <v>35.49760049959049</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.554518434861836</v>
+        <v>9.891875957499948</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.018792377449142</v>
+        <v>11.2612820741227</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.00130439543716</v>
+        <v>27.26996128914769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.93587785526115</v>
+        <v>24.03916419819042</v>
       </c>
       <c r="C2">
-        <v>9.474960569113012</v>
+        <v>13.08295949195209</v>
       </c>
       <c r="D2">
-        <v>8.10468717712231</v>
+        <v>5.083826033221532</v>
       </c>
       <c r="E2">
-        <v>12.69313455404209</v>
+        <v>7.25204171397866</v>
       </c>
       <c r="F2">
-        <v>35.67475656164122</v>
+        <v>22.98533220561152</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.931293539833714</v>
+        <v>5.667461791096478</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.21381394625839</v>
+        <v>7.661946291600509</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.43644700732835</v>
+        <v>16.99788372251791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39582765267504</v>
+        <v>22.47362859202633</v>
       </c>
       <c r="C3">
-        <v>9.18825208512923</v>
+        <v>12.4588836775243</v>
       </c>
       <c r="D3">
-        <v>8.098123691196937</v>
+        <v>4.979375293778356</v>
       </c>
       <c r="E3">
-        <v>12.73006694807218</v>
+        <v>7.31325158236434</v>
       </c>
       <c r="F3">
-        <v>35.81446367997784</v>
+        <v>22.86982014299558</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.95982585977629</v>
+        <v>5.746687137123859</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.1838795834798</v>
+        <v>7.415315144198671</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.56367958688883</v>
+        <v>17.04150717283616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.05820643016829</v>
+        <v>21.45953764247428</v>
       </c>
       <c r="C4">
-        <v>9.006950416796826</v>
+        <v>12.06016229695449</v>
       </c>
       <c r="D4">
-        <v>8.094827478781447</v>
+        <v>4.915566139026819</v>
       </c>
       <c r="E4">
-        <v>12.75427584390294</v>
+        <v>7.353980242223143</v>
       </c>
       <c r="F4">
-        <v>35.90987989271635</v>
+        <v>22.82633857546329</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.978246839644276</v>
+        <v>5.796718244321748</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.16662915140331</v>
+        <v>7.261991362368907</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.6488708392633</v>
+        <v>17.08921935701046</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.91929841816443</v>
+        <v>21.03303229474589</v>
       </c>
       <c r="C5">
-        <v>8.931830301089015</v>
+        <v>11.89390475635363</v>
       </c>
       <c r="D5">
-        <v>8.093669891693935</v>
+        <v>4.889670181440152</v>
       </c>
       <c r="E5">
-        <v>12.76452704375945</v>
+        <v>7.371353854127872</v>
       </c>
       <c r="F5">
-        <v>35.95117724214588</v>
+        <v>22.81525861973111</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.985981044287067</v>
+        <v>5.817463710117167</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.15988749693787</v>
+        <v>7.199114440105665</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.68535949497018</v>
+        <v>17.1136673487199</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.89615866105435</v>
+        <v>20.96141241605329</v>
       </c>
       <c r="C6">
-        <v>8.919284499285537</v>
+        <v>11.86607413861119</v>
       </c>
       <c r="D6">
-        <v>8.093488919649712</v>
+        <v>4.885377379507048</v>
       </c>
       <c r="E6">
-        <v>12.76625257090615</v>
+        <v>7.37428520856376</v>
       </c>
       <c r="F6">
-        <v>35.95818021146511</v>
+        <v>22.81381189369999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.987279064026286</v>
+        <v>5.820930312822216</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.15878556121462</v>
+        <v>7.188652291741324</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.69152531028196</v>
+        <v>17.11802171137834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05633817026228</v>
+        <v>21.45383924526112</v>
       </c>
       <c r="C7">
-        <v>9.00594221670935</v>
+        <v>12.05793518358724</v>
       </c>
       <c r="D7">
-        <v>8.094811114026127</v>
+        <v>4.915216430764621</v>
       </c>
       <c r="E7">
-        <v>12.75441253198799</v>
+        <v>7.354211424051864</v>
       </c>
       <c r="F7">
-        <v>35.91042707852613</v>
+        <v>22.82616262074186</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.978350223763064</v>
+        <v>5.796996566581801</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.1665370596509</v>
+        <v>7.261144876818008</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.64935576815508</v>
+        <v>17.08952914539186</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.75103075546568</v>
+        <v>23.51034658980044</v>
       </c>
       <c r="C8">
-        <v>9.377244163334673</v>
+        <v>12.87107384100731</v>
       </c>
       <c r="D8">
-        <v>8.102272479336522</v>
+        <v>5.047759115107988</v>
       </c>
       <c r="E8">
-        <v>12.70555117263805</v>
+        <v>7.272484937751872</v>
       </c>
       <c r="F8">
-        <v>35.72092272928676</v>
+        <v>22.93965454030311</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.940944683314559</v>
+        <v>5.694496338885351</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.20326065523002</v>
+        <v>7.57734587731595</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.47884628519506</v>
+        <v>17.00842644391237</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.05770306077975</v>
+        <v>27.20857271050408</v>
       </c>
       <c r="C9">
-        <v>10.06025832788164</v>
+        <v>14.33781869194733</v>
       </c>
       <c r="D9">
-        <v>8.122675681328774</v>
+        <v>5.309183542913341</v>
       </c>
       <c r="E9">
-        <v>12.62186580809286</v>
+        <v>7.13788274682716</v>
       </c>
       <c r="F9">
-        <v>35.42612554349291</v>
+        <v>23.39089985501684</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.874718186583646</v>
+        <v>5.504075822412882</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.28405212049552</v>
+        <v>8.179288801555527</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.20080800569252</v>
+        <v>17.02694255103801</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.9742759935203</v>
+        <v>29.68097562500857</v>
       </c>
       <c r="C10">
-        <v>10.53056907621636</v>
+        <v>15.3329501051317</v>
       </c>
       <c r="D10">
-        <v>8.141114242718215</v>
+        <v>5.500846149519972</v>
       </c>
       <c r="E10">
-        <v>12.56774175984621</v>
+        <v>7.055686269209562</v>
       </c>
       <c r="F10">
-        <v>35.2568551386231</v>
+        <v>23.87559066800597</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.830361249457708</v>
+        <v>5.370007031284709</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.34850287659246</v>
+        <v>8.606851385290962</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.03119049047471</v>
+        <v>17.16436819671772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.38005833456714</v>
+        <v>30.74735961147212</v>
       </c>
       <c r="C11">
-        <v>10.7369749017233</v>
+        <v>15.76715790726007</v>
       </c>
       <c r="D11">
-        <v>8.150235116588949</v>
+        <v>5.587702576156175</v>
       </c>
       <c r="E11">
-        <v>12.54470980996103</v>
+        <v>7.022172670708647</v>
       </c>
       <c r="F11">
-        <v>35.19022169840525</v>
+        <v>24.13192660942713</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.81110631782594</v>
+        <v>5.310136866609951</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.3788706241971</v>
+        <v>8.797559420925614</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.96161960103012</v>
+        <v>17.25701784952438</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.53198171655912</v>
+        <v>31.14290718953039</v>
       </c>
       <c r="C12">
-        <v>10.81400007320526</v>
+        <v>15.92889367305722</v>
       </c>
       <c r="D12">
-        <v>8.153792882682161</v>
+        <v>5.620526938719462</v>
       </c>
       <c r="E12">
-        <v>12.53621619690632</v>
+        <v>7.010062853726453</v>
       </c>
       <c r="F12">
-        <v>35.16648782045997</v>
+        <v>24.23433624461966</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.80394703000907</v>
+        <v>5.287613692976375</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.39051563926581</v>
+        <v>8.869189279108125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.93637170920299</v>
+        <v>17.2966916853378</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.49934153505563</v>
+        <v>31.05808476602321</v>
       </c>
       <c r="C13">
-        <v>10.79746262307897</v>
+        <v>15.89418094928201</v>
       </c>
       <c r="D13">
-        <v>8.153022058547746</v>
+        <v>5.613460844774268</v>
       </c>
       <c r="E13">
-        <v>12.53803531149341</v>
+        <v>7.012644684842109</v>
       </c>
       <c r="F13">
-        <v>35.17153255836219</v>
+        <v>24.21204017102259</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.805483043843909</v>
+        <v>5.292458070275849</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.38800129761143</v>
+        <v>8.85378920614146</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.94176040920655</v>
+        <v>17.28793911544977</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.39259269388031</v>
+        <v>30.78006657473358</v>
       </c>
       <c r="C14">
-        <v>10.74333485725722</v>
+        <v>15.78051803660817</v>
       </c>
       <c r="D14">
-        <v>8.150525743010274</v>
+        <v>5.590404483056991</v>
       </c>
       <c r="E14">
-        <v>12.54400646672051</v>
+        <v>7.021164603053098</v>
       </c>
       <c r="F14">
-        <v>35.18823901746553</v>
+        <v>24.1402438656239</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.810514674262201</v>
+        <v>5.308280972512075</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.37982578392728</v>
+        <v>8.803464432234762</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.9595204213738</v>
+        <v>17.26018842534217</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.32697597961223</v>
+        <v>30.60869914424391</v>
       </c>
       <c r="C15">
-        <v>10.71003062635889</v>
+        <v>15.7105452878702</v>
       </c>
       <c r="D15">
-        <v>8.149010160763741</v>
+        <v>5.576272650661485</v>
       </c>
       <c r="E15">
-        <v>12.54769366177008</v>
+        <v>7.026459694992623</v>
       </c>
       <c r="F15">
-        <v>35.19866761290062</v>
+        <v>24.09696733029897</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.813613882779137</v>
+        <v>5.317991893991937</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.37483681901116</v>
+        <v>8.772561480541588</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.97054198677957</v>
+        <v>17.243795456561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.94752087255055</v>
+        <v>29.61012126429434</v>
       </c>
       <c r="C16">
-        <v>10.51692366078782</v>
+        <v>15.30419868028785</v>
       </c>
       <c r="D16">
-        <v>8.140532794442258</v>
+        <v>5.495161563723073</v>
       </c>
       <c r="E16">
-        <v>12.56927889423806</v>
+        <v>7.057956456856167</v>
       </c>
       <c r="F16">
-        <v>35.2614191057509</v>
+        <v>23.85957611867002</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.831638129198089</v>
+        <v>5.373941144840436</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.34653891864663</v>
+        <v>8.594308109481098</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.03589031951618</v>
+        <v>17.15894179599146</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.71177894044969</v>
+        <v>28.98267020725368</v>
       </c>
       <c r="C17">
-        <v>10.39648861338658</v>
+        <v>15.05015755640694</v>
       </c>
       <c r="D17">
-        <v>8.13551889672736</v>
+        <v>5.445303653830903</v>
       </c>
       <c r="E17">
-        <v>12.58292747640889</v>
+        <v>7.0782880408593</v>
       </c>
       <c r="F17">
-        <v>35.30257639969693</v>
+        <v>23.72326319737235</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.842931442350643</v>
+        <v>5.408542025230571</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.32944389687432</v>
+        <v>8.483951990557452</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.07792727926874</v>
+        <v>17.11478986185021</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.57514195958138</v>
+        <v>28.61627981476768</v>
       </c>
       <c r="C18">
-        <v>10.32651048857603</v>
+        <v>14.90230112607391</v>
       </c>
       <c r="D18">
-        <v>8.132704131509596</v>
+        <v>5.41659644644947</v>
       </c>
       <c r="E18">
-        <v>12.59092740419662</v>
+        <v>7.090345739664586</v>
       </c>
       <c r="F18">
-        <v>35.32722447922629</v>
+        <v>23.64822372877347</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.849513996285649</v>
+        <v>5.428549597812894</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.3197103423102</v>
+        <v>8.420123133569337</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.10281979325784</v>
+        <v>17.09221637314698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.52870383960415</v>
+        <v>28.49127866894745</v>
       </c>
       <c r="C19">
-        <v>10.30269733443693</v>
+        <v>14.85194204327159</v>
       </c>
       <c r="D19">
-        <v>8.131763013234828</v>
+        <v>5.406872083699011</v>
       </c>
       <c r="E19">
-        <v>12.59366175455112</v>
+        <v>7.094490018191076</v>
       </c>
       <c r="F19">
-        <v>35.33573719381209</v>
+        <v>23.62338851358215</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.851757686974913</v>
+        <v>5.435342401244971</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.31643190186329</v>
+        <v>8.398452216170437</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.11137041704164</v>
+        <v>17.08505003189457</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73698315834112</v>
+        <v>29.05003153719383</v>
       </c>
       <c r="C20">
-        <v>10.40938270318708</v>
+        <v>15.07738088774601</v>
       </c>
       <c r="D20">
-        <v>8.136045494387588</v>
+        <v>5.450614386252406</v>
       </c>
       <c r="E20">
-        <v>12.58145907933873</v>
+        <v>7.076085923337212</v>
       </c>
       <c r="F20">
-        <v>35.29809411801483</v>
+        <v>23.7374243693126</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.84172025658863</v>
+        <v>5.404847813280502</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.33125347847752</v>
+        <v>8.495736649124401</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.07337843791521</v>
+        <v>17.11919600875172</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.42399555788075</v>
+        <v>30.86195070506507</v>
       </c>
       <c r="C21">
-        <v>10.75926471585162</v>
+        <v>15.81397676095927</v>
       </c>
       <c r="D21">
-        <v>8.151256164338303</v>
+        <v>5.597178631212397</v>
       </c>
       <c r="E21">
-        <v>12.54224640711762</v>
+        <v>7.018646131357566</v>
       </c>
       <c r="F21">
-        <v>35.18329118952657</v>
+        <v>24.16118583007714</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.809033181254541</v>
+        <v>5.303629479522494</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.38222322800762</v>
+        <v>8.818262268754532</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.95427405455437</v>
+        <v>17.26821292271177</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.86281765702444</v>
+        <v>31.99800582271651</v>
       </c>
       <c r="C22">
-        <v>10.98128993499753</v>
+        <v>16.27970401821769</v>
       </c>
       <c r="D22">
-        <v>8.161802011738683</v>
+        <v>5.692573489491581</v>
       </c>
       <c r="E22">
-        <v>12.51794791324244</v>
+        <v>6.984504923484591</v>
       </c>
       <c r="F22">
-        <v>35.11700008018965</v>
+        <v>24.46934416925447</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.788440195462902</v>
+        <v>5.238335818096292</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.41637983770337</v>
+        <v>9.025615024288779</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.88282979775444</v>
+        <v>17.39246705789697</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.62958170550695</v>
+        <v>31.39603612638788</v>
       </c>
       <c r="C23">
-        <v>10.86341437870565</v>
+        <v>16.03257840429789</v>
       </c>
       <c r="D23">
-        <v>8.156118675392408</v>
+        <v>5.641701002145608</v>
       </c>
       <c r="E23">
-        <v>12.5307950000777</v>
+        <v>7.002407507816789</v>
       </c>
       <c r="F23">
-        <v>35.15157878585806</v>
+        <v>24.30196147654707</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.799360818851314</v>
+        <v>5.273110065115801</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.39807432735963</v>
+        <v>8.915273256168202</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.92037368598054</v>
+        <v>17.32361004566352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.72559176566832</v>
+        <v>29.01959511975052</v>
       </c>
       <c r="C24">
-        <v>10.40355558122439</v>
+        <v>15.06507883866563</v>
       </c>
       <c r="D24">
-        <v>8.135807208323806</v>
+        <v>5.448213537343656</v>
       </c>
       <c r="E24">
-        <v>12.58212246448951</v>
+        <v>7.077080353687029</v>
       </c>
       <c r="F24">
-        <v>35.30011748613899</v>
+        <v>23.73101174975031</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.842267553654169</v>
+        <v>5.406517607166593</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.33043507156155</v>
+        <v>8.490409996724573</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.07543271143609</v>
+        <v>17.11719525659603</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.71120230853495</v>
+        <v>26.24561112669151</v>
       </c>
       <c r="C25">
-        <v>9.880753759855075</v>
+        <v>13.95525449486634</v>
       </c>
       <c r="D25">
-        <v>8.116545193993081</v>
+        <v>5.238442278883232</v>
       </c>
       <c r="E25">
-        <v>12.64320990978359</v>
+        <v>7.17144521507183</v>
       </c>
       <c r="F25">
-        <v>35.49760049959049</v>
+        <v>23.24285825528683</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.891875957499948</v>
+        <v>5.554518434861736</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.2612820741227</v>
+        <v>8.018792377449161</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.26996128914769</v>
+        <v>17.00130439543731</v>
       </c>
     </row>
   </sheetData>
